--- a/examples/cn0501/csv_files/attenuation.xlsx
+++ b/examples/cn0501/csv_files/attenuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsantos5\OneDrive - Analog Devices, Inc\Desktop\Codes\CN0501\CN0501\pyadi-iio\examples\cn0501\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CC8512-9E13-40A1-9D2E-3BEA2C33D1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38442D11-F361-4702-9414-3004C0D569E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,16 +35,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
     <t>Reading</t>
   </si>
   <si>
-    <t>Ratio</t>
+    <t>Ratio (Vpp-CN0501/Vpp-M2k)</t>
+  </si>
+  <si>
+    <t>Difference (Vpp-CN0501 - Vpp-M2k)</t>
   </si>
 </sst>
 </file>
@@ -188,7 +188,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ratio</c:v>
+                  <c:v>Ratio (Vpp-CN0501/Vpp-M2k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -328,7 +328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Difference</c:v>
+                  <c:v>Difference (Vpp-CN0501 - Vpp-M2k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1512,27 +1512,28 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
